--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_0</t>
+          <t>model_34_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999880372142435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990500038347232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998269074737384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999097463896631</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999558291228156</v>
       </c>
       <c r="G2" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.116673539815936e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008867797202737151</v>
       </c>
       <c r="I2" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>4.320004712944014e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.594710888469202e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.457357800706607e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002401447512923727</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003341666559990592</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009900236488</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003483928223652795</v>
       </c>
       <c r="P2" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8051425055225</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.450305494627</v>
+        <v>193.4055612235371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_22</t>
+          <t>model_34_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999882077057538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990494652399772</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998297822285379</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999112381476529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999565614006991</v>
       </c>
       <c r="G3" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.100758905694084e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008872824748275157</v>
       </c>
       <c r="I3" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>4.248257223027802e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.551824175299648e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.400040699163725e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002407665975201593</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003317768686473009</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009759140066</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00345901296818415</v>
       </c>
       <c r="P3" t="n">
-        <v>129.8498867766124</v>
+        <v>128.83385121756</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.450305494627</v>
+        <v>193.4342699355746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_21</t>
+          <t>model_34_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999883923315521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990488603245904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998329505619905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999128855281826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999573690633251</v>
       </c>
       <c r="G4" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.083524897837294e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008878471367883882</v>
       </c>
       <c r="I4" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>4.169182662484029e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.504463452755205e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.336823057619617e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002414249129454799</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003291693937530181</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009606346302</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003431828163196655</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8654118883123</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.450305494627</v>
+        <v>193.465830606327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_20</t>
+          <t>model_34_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999988590433898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990481780038731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998364222709296</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999146950487101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.999958254869512</v>
       </c>
       <c r="G5" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.065032913415572e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008884840532275025</v>
       </c>
       <c r="I5" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>4.082536524128896e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.452441349725371e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.267488936927134e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002421875183975704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003263484201609641</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009442399533</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003402417480415774</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8998395233416</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.450305494627</v>
+        <v>193.5002582413562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_19</t>
+          <t>model_34_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999888025139299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990474102795875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998402529405244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999166652948901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999592274214115</v>
       </c>
       <c r="G6" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.045236173361815e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000889200690148892</v>
       </c>
       <c r="I6" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.986931525687842e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.395798527383127e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.191365026535485e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002430270512331329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003233011248606808</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009266885024</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003370647230715901</v>
       </c>
       <c r="P6" t="n">
-        <v>129.8498867766124</v>
+        <v>128.9373652037426</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.450305494627</v>
+        <v>193.5377839217572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_18</t>
+          <t>model_34_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999890303050661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.999046544695703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998444664975048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999188564246941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999603018618133</v>
       </c>
       <c r="G7" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.023972870680745e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008900086747104258</v>
       </c>
       <c r="I7" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.881770509168522e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.332805497636143e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.107266064935532e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002439324772409027</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003199957610157898</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009078368221</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003336186430447757</v>
       </c>
       <c r="P7" t="n">
-        <v>129.8498867766124</v>
+        <v>128.9784708643594</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.450305494627</v>
+        <v>193.578889582374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_17</t>
+          <t>model_34_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999892713776307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990455733925779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998490784090912</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999212612546573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999614784965621</v>
       </c>
       <c r="G8" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.001469804958e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008909153435423234</v>
       </c>
       <c r="I8" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.766667447127529e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.26366877870695e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.01516811291724e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002449313748567925</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003164600772543039</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008878859892</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003299324379056889</v>
       </c>
       <c r="P8" t="n">
-        <v>129.8498867766124</v>
+        <v>129.0229134782366</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.450305494627</v>
+        <v>193.6233321962512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_16</t>
+          <t>model_34_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999895244108192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990444712399753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.999854150171967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999238668790216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999627656007546</v>
       </c>
       <c r="G9" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.778502675025979e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000891944154618031</v>
       </c>
       <c r="I9" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.640087519043072e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.188759399637138e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.914423459340106e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.00024602444330572</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003127059749193478</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008669453115</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003260185156622706</v>
       </c>
       <c r="P9" t="n">
-        <v>129.8498867766124</v>
+        <v>129.0706483727035</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.450305494627</v>
+        <v>193.6710670907181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_15</t>
+          <t>model_34_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999897884278663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990432231181724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998596937071356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999267252487792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999641743353551</v>
       </c>
       <c r="G10" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.532054350545965e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008931092215348033</v>
       </c>
       <c r="I10" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.501733203165715e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.106583815679865e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.80415850942279e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002472191529017118</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003087402524865516</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008450956249</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003218839642153332</v>
       </c>
       <c r="P10" t="n">
-        <v>129.8498867766124</v>
+        <v>129.1217005936807</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.450305494627</v>
+        <v>193.7221193116953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_14</t>
+          <t>model_34_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999900609555421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990418126100765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998657437228848</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999298623799769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999657150135894</v>
       </c>
       <c r="G11" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.277661727771472e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008944258689282069</v>
       </c>
       <c r="I11" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.350738257773665e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>2.016394088679385e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.683566022899289e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002485085863572947</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003045925430435136</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008225416103</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003175596781943629</v>
       </c>
       <c r="P11" t="n">
-        <v>129.8498867766124</v>
+        <v>129.1758020238117</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.450305494627</v>
+        <v>193.7762207418263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_13</t>
+          <t>model_34_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999990335449617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990402117571732</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998723181397355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.999933256114513</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999673864174582</v>
       </c>
       <c r="G12" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.021433557751277e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008959201948441405</v>
       </c>
       <c r="I12" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.186655426510048e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.918827244312743e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.552741335411396e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002500413838968197</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003003570135314186</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007998248593</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003131438334221831</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8498867766124</v>
+        <v>129.2318146110068</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.450305494627</v>
+        <v>193.8322333290214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_23</t>
+          <t>model_34_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999906074474645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990383858632854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.999879456357406</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999369349104534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999692013372277</v>
       </c>
       <c r="G13" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.767535506502441e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008976245866408275</v>
       </c>
       <c r="I13" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.008501379974381e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.8130651385357e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.410683322922688e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002518402799276048</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00296100244959413</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007773146926</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003087058453993416</v>
       </c>
       <c r="P13" t="n">
-        <v>129.8498867766124</v>
+        <v>129.2889096103077</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.450305494627</v>
+        <v>193.8893283283223</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999908679996334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990363069821123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998871810645853</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999409204232388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999711635348605</v>
       </c>
       <c r="G14" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.524321493704776e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008995651309636177</v>
       </c>
       <c r="I14" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>2.815709858924234e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.698485196728289e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.257097527826261e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002537662729709331</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00291964406969493</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007557517545</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003043939362238258</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8498867766124</v>
+        <v>129.3451742562868</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.450305494627</v>
+        <v>193.9455929743015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_10</t>
+          <t>model_34_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999911059230286</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990339318336829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9998955084203665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999451815804352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999732736971989</v>
       </c>
       <c r="G15" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.302230447887982e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009017822277654683</v>
       </c>
       <c r="I15" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>2.607877568311247e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.575980723679899e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.091930189380133e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002558281342741295</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00288135913205695</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007360615425</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003004024555544283</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8498867766124</v>
+        <v>129.3979727012032</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.450305494627</v>
+        <v>193.9983914192178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_9</t>
+          <t>model_34_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999913056622838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990312109855078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999043946547529</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999497469048757</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999755305781715</v>
       </c>
       <c r="G16" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.115782620811859e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009043220201054882</v>
       </c>
       <c r="I16" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>2.386096909959929e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.4447317133528e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.915278840503909e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.00025802901860762</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.002848821268667422</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007195313972</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.002970101487947599</v>
       </c>
       <c r="P16" t="n">
-        <v>129.8498867766124</v>
+        <v>129.443399840779</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.450305494627</v>
+        <v>194.0438185587936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_8</t>
+          <t>model_34_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999914443557965</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990280856065558</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999138644450088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999545454054328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999779198423864</v>
       </c>
       <c r="G17" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>7.986318314664022e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009072394241689308</v>
       </c>
       <c r="I17" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>2.14975199421055e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.306779097415579e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.728265545813064e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002603829937706274</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.002826007486661</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007080533134</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.002946316476010125</v>
       </c>
       <c r="P17" t="n">
-        <v>129.8498867766124</v>
+        <v>129.4755613820624</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.450305494627</v>
+        <v>194.075980100077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_7</t>
+          <t>model_34_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999914968214574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990244975983417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999238303740725</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999595577998942</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999804292175114</v>
       </c>
       <c r="G18" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>7.937343923098278e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000910588672341474</v>
       </c>
       <c r="I18" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>1.901024556614389e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.162677222290396e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.531850889452392e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002628666422337683</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.002817329218089054</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007037113277</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.002937268755578578</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8498867766124</v>
+        <v>129.487863714341</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.450305494627</v>
+        <v>194.0882824323556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_6</t>
+          <t>model_34_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999991430926731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990203570852506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999342444036029</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999647448654566</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999830420847715</v>
       </c>
       <c r="G19" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>7.998853757775142e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009144536595644727</v>
       </c>
       <c r="I19" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>1.64111352738944e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>1.013553708630995e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.327335661781834e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002671980252461115</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.002828224488574969</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007091646843</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.002948627860285397</v>
       </c>
       <c r="P19" t="n">
-        <v>129.8498867766124</v>
+        <v>129.4724246136563</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.450305494627</v>
+        <v>194.0728433316709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_5</t>
+          <t>model_34_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999912008203932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990155666544931</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999449689092837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999699869315161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999857146039168</v>
       </c>
       <c r="G20" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.213647923634781e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009189253164010161</v>
       </c>
       <c r="I20" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>1.373453703559484e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>8.628489796820938e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.118151341620789e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002730940878298339</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.002865946252747037</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000007282079675</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.002987955518053087</v>
       </c>
       <c r="P20" t="n">
-        <v>129.8498867766124</v>
+        <v>129.41942681262</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.450305494627</v>
+        <v>194.0198455306346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_4</t>
+          <t>model_34_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999907453202869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990100153968007</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999557969047691</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999751402168872</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999883872918462</v>
       </c>
       <c r="G21" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>8.638837278693549e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009241071717847739</v>
       </c>
       <c r="I21" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>1.103211004243721e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>7.146966164253599e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>9.089538103345406e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002794696057635864</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00293918990177456</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00000765904528</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003064317300854968</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8498867766124</v>
+        <v>129.318485116859</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.450305494627</v>
+        <v>193.9189038348736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_3</t>
+          <t>model_34_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999899957781573</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990035531607461</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999664954289857</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999799862864572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999909829187343</v>
       </c>
       <c r="G22" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>9.338501955579515e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009301393854823805</v>
       </c>
       <c r="I22" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>8.361996200111301e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>5.753764337450641e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>7.057880268780972e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002862644114600338</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003055896260604982</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000008279356008</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003185992090996269</v>
       </c>
       <c r="P22" t="n">
-        <v>129.8498867766124</v>
+        <v>129.1627294175646</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.450305494627</v>
+        <v>193.7631481355793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_2</t>
+          <t>model_34_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999888558952</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989960282896652</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999766561243671</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999842830330034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999933919180041</v>
       </c>
       <c r="G23" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.040253266110057e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009371635223327338</v>
       </c>
       <c r="I23" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>5.826112480421737e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>4.518487985994099e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>5.172300233207919e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002935451838447891</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003225295747850199</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009222707421</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003362603265118795</v>
       </c>
       <c r="P23" t="n">
-        <v>129.8498867766124</v>
+        <v>128.9469225127171</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.450305494627</v>
+        <v>193.5473412307317</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_1</t>
+          <t>model_34_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999872047676039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989872142343635</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999858136238371</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999876190858719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999954645492211</v>
       </c>
       <c r="G24" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.194378779592619e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009453910560644908</v>
       </c>
       <c r="I24" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>3.540604161658108e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>3.559402507853633e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>3.550003334755871e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003014294403009376</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003455978558371881</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010589157845</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003603106720463634</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8498867766124</v>
+        <v>128.6705985289375</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.450305494627</v>
+        <v>193.2710172469521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_11</t>
+          <t>model_34_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999848993784193</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989769167964646</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999932834956616</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999895177355445</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999970041473197</v>
       </c>
       <c r="G25" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.409576740494591e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009550032623379442</v>
       </c>
       <c r="I25" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>1.676290191327166e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>3.013557642405273e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>2.344923916866219e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003099040243903889</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003754433033754353</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012497066136</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003914267020749073</v>
       </c>
       <c r="P25" t="n">
-        <v>129.8498867766124</v>
+        <v>128.3392719793816</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.450305494627</v>
+        <v>192.9396906973962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_24</t>
+          <t>model_34_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999817543205211</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9989648146925866</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999788148425642</v>
+        <v>0.9999982858833012</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999958747</v>
+        <v>0.9999893451083597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999808895613084</v>
+        <v>0.9999977699708703</v>
       </c>
       <c r="G26" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.703154090081487e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000966300045087021</v>
       </c>
       <c r="I26" t="n">
-        <v>2.898731705408413e-05</v>
+        <v>4.278054273792097e-07</v>
       </c>
       <c r="J26" t="n">
-        <v>1.747074310021222e-13</v>
+        <v>3.063186420078487e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>1.449365861439578e-05</v>
+        <v>1.745495923728848e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0003190469745343864</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004126928749180784</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000015099872672</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004302620649953638</v>
       </c>
       <c r="P26" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9608871716636</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.450305494627</v>
+        <v>192.5613058896782</v>
       </c>
     </row>
   </sheetData>
